--- a/pearson_tables/t2m_netherlands-3-9.xlsx
+++ b/pearson_tables/t2m_netherlands-3-9.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7679359678185392</v>
+        <v>-0.765898070361533</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7119971313793791</v>
+        <v>0.7254464517706051</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5357590308332104</v>
+        <v>0.5368866801983169</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7900886388161155</v>
+        <v>0.8333483302698734</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5181806528736593</v>
+        <v>0.5214047550085139</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7872942406085462</v>
+        <v>0.727398590050087</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6868178095921318</v>
+        <v>0.6871213414525079</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5775468439095861</v>
+        <v>-0.5850725310107505</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6045165850200249</v>
+        <v>-0.6008053682157281</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5479795711753905</v>
+        <v>-0.5479407254771285</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5312030952334559</v>
+        <v>0.5442502837855318</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6080886495936826</v>
+        <v>0.6186618915138786</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7883318688540447</v>
+        <v>-0.8028508983248819</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5429259875740143</v>
+        <v>0.5441391411434342</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6533667638616509</v>
+        <v>-0.6488207347391419</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5371351891568192</v>
+        <v>0.5487443296058414</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6623338394086375</v>
+        <v>0.6426657507744051</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.660631368899893</v>
+        <v>-0.7097088694429687</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6758086062013303</v>
+        <v>-0.6783667980280007</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5178642446749906</v>
+        <v>-0.5163660125888356</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6326905896817859</v>
+        <v>0.624513563449094</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.81182367191604</v>
+        <v>0.8248650677284565</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6634194781465181</v>
+        <v>-0.6272672798284868</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5897507668936733</v>
+        <v>-0.7100164044151006</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-3-9.xlsx
+++ b/pearson_tables/t2m_netherlands-3-9.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.765898070361533</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7254464517706051</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5368866801983169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8333483302698734</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5214047550085139</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.727398590050087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6871213414525079</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5850725310107505</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6008053682157281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5479407254771285</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5442502837855318</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6186618915138786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8028508983248819</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5441391411434342</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6488207347391419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5487443296058414</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6426657507744051</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7097088694429687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6783667980280007</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5163660125888356</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.624513563449094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8248650677284565</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6272672798284868</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7100164044151006</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
